--- a/biology/Histoire de la zoologie et de la botanique/Jane_Stephens/Jane_Stephens.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jane_Stephens/Jane_Stephens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jane Stephens, née le 9 octobre 1879 à Clontarf (Irlande) et morte le 11 décembre 1959 à Londres (Royaume-Uni), est une zoologiste irlandaise. Elle est à son époque connue comme une spécialiste renommée des éponges, dont elle a décrit une quarantaine de nouvelles espèces[1],[2]. De 1905 à 1920, elle est employée par le muséum d'histoire naturelle de Dublin, travaillant initialement dans le domaine des invertébrés marins. Le naturaliste Robert Lloyd Praeger, témoignant de son travail, affirme que l'essentiel des connaissances que l'on a concernant les éponges marines ou d'eaux douces en Irlande ou au large des cotes irlandaises est le fruit de ses recherches.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jane Stephens, née le 9 octobre 1879 à Clontarf (Irlande) et morte le 11 décembre 1959 à Londres (Royaume-Uni), est une zoologiste irlandaise. Elle est à son époque connue comme une spécialiste renommée des éponges, dont elle a décrit une quarantaine de nouvelles espèces,. De 1905 à 1920, elle est employée par le muséum d'histoire naturelle de Dublin, travaillant initialement dans le domaine des invertébrés marins. Le naturaliste Robert Lloyd Praeger, témoignant de son travail, affirme que l'essentiel des connaissances que l'on a concernant les éponges marines ou d'eaux douces en Irlande ou au large des cotes irlandaises est le fruit de ses recherches.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1915 : Atlantic Sponges collected by the Scottish National Antarctic Expedition. Transactions of the Royal Society of Edinburgh 50(2)
 1915 : Sponges of the Coasts of Ireland. I.- The Triaxonia and part of the Tetraxonida. Fisheries, Ireland Scientific Investigations1914(4): 1-43, pls I-V.
@@ -549,7 +563,9 @@
           <t>Genres et espèces décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Atergia
 Atergia corticata
